--- a/data/pbwg-apts.xlsx
+++ b/data/pbwg-apts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainerkoelle/RProjects/PBWG-2024-Xian/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{178A29BB-E1BE-B443-B306-F95DF10D3BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3665E5-EEA9-214E-ABA9-4BACF1AF4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{6A9CADCC-3359-0047-9D54-7C8D13F70FE7}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">Brasilia </t>
   </si>
   <si>
-    <t>SBBR,</t>
-  </si>
-  <si>
     <t>BSB</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>IST</t>
+  </si>
+  <si>
+    <t>SBBR</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,10 +1441,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,653 +1518,653 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
       <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
       <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>94</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>99</v>
       </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
       <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
       <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
       <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>120</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
       <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>123</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
       <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
         <v>126</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>128</v>
-      </c>
-      <c r="F35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
       <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>132</v>
-      </c>
-      <c r="F36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
       <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
         <v>134</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>135</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>136</v>
-      </c>
-      <c r="F37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
       <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>139</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
         <v>142</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>143</v>
-      </c>
-      <c r="F39" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
         <v>145</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>146</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>147</v>
-      </c>
-      <c r="F40" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
       <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>150</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>151</v>
-      </c>
-      <c r="F41" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
